--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/130.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/130.xlsx
@@ -479,13 +479,13 @@
         <v>-28.4890694186856</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.097267897229502</v>
+        <v>-9.210333024570648</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.013942474124325</v>
+        <v>-3.023408209078893</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.725397669554319</v>
+        <v>-5.860300758035464</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-27.69148429147386</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.374733071354202</v>
+        <v>-9.489644213396032</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.053206290346662</v>
+        <v>-3.046804154257058</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.675790934087019</v>
+        <v>-5.817606758468596</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-26.61063196663006</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.19683804369471</v>
+        <v>-10.31325480056334</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.90483122224138</v>
+        <v>-2.887470828673251</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.550392857468966</v>
+        <v>-5.696516049485472</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-25.35252495127715</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.94789108851316</v>
+        <v>-11.0569368788819</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.826486882036491</v>
+        <v>-2.817034239384765</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.774389066788058</v>
+        <v>-5.922436827322296</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-23.94391627269168</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.75181085220651</v>
+        <v>-11.87186726926514</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.674040107747433</v>
+        <v>-2.658931590268081</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.318371066507897</v>
+        <v>-5.462163828618575</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-22.44602036677109</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.43157630805177</v>
+        <v>-12.55419881646738</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.634187137897219</v>
+        <v>-2.612938330385097</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.432444301167856</v>
+        <v>-5.571982064854973</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-20.92948879754983</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.9533176685974</v>
+        <v>-13.08324568199869</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.513358274970929</v>
+        <v>-2.497032173327296</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.965520412620538</v>
+        <v>-5.09963796293118</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-19.48132494631571</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.93734824248437</v>
+        <v>-14.073534376644</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.278377623567629</v>
+        <v>-2.272564641105903</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.834335538146442</v>
+        <v>-4.950608279683812</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-18.15582656186561</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.68655527260214</v>
+        <v>-14.82482308291361</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.261148153027918</v>
+        <v>-2.253947386464969</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.451660618385631</v>
+        <v>-4.570643466611238</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-17.01624858726715</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.36920103507258</v>
+        <v>-15.50841149118866</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.079152051225084</v>
+        <v>-2.060652627309725</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.231709930644634</v>
+        <v>-4.344735781077254</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.09455706110756</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.02267714681166</v>
+        <v>-16.16383835605115</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.108256240442241</v>
+        <v>-2.101644627507169</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.707009709656778</v>
+        <v>-3.815662730940263</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.37758087016867</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.00135296883636</v>
+        <v>-17.14569560766639</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.920551894600414</v>
+        <v>-1.91043154450376</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.075633405114538</v>
+        <v>-3.183225949867843</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.84740692487387</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.61314318832738</v>
+        <v>-17.75201324456957</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.653429639720677</v>
+        <v>-1.64200005933985</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.742421205489768</v>
+        <v>-2.860029361916993</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.46845548861444</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.5119690553204</v>
+        <v>-18.65396817194176</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.504085741205108</v>
+        <v>-1.494973498427267</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.159002006256771</v>
+        <v>-2.273101425522414</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.18680749838025</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.414552413229</v>
+        <v>-19.55708831426687</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.343718123696805</v>
+        <v>-1.332589666281338</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.768275320248298</v>
+        <v>-1.883186462290128</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.96865049098198</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.20894098045357</v>
+        <v>-20.35391204982</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.123060451602354</v>
+        <v>-1.11885782239016</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.254192956865082</v>
+        <v>-1.37045260609961</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.78782475425762</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.1778368522555</v>
+        <v>-21.32051676862464</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.034975438083221</v>
+        <v>-1.031191762561962</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8964195971092342</v>
+        <v>-1.012430492589769</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.61873136929052</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.01808775633464</v>
+        <v>-22.16050582664694</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.901591056731716</v>
+        <v>-0.9056889475211763</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5187459370339623</v>
+        <v>-0.6363410011583459</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.45411205974339</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.66833006927181</v>
+        <v>-22.8173990294277</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6560187323294602</v>
+        <v>-0.6645156368737404</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1726247268072503</v>
+        <v>-0.2959018503649429</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.29435983523826</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.28966457753445</v>
+        <v>-23.43686133838397</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3645578864669545</v>
+        <v>-0.3751364671630691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1663873629764045</v>
+        <v>0.04773182232184116</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.13700774838346</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.93514129223722</v>
+        <v>-24.08961737346675</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1502892581592656</v>
+        <v>-0.1718130040310633</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2256431256380567</v>
+        <v>0.1328448830959023</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.98584819014631</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.40249722677832</v>
+        <v>-24.54615906586058</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.06145798337815424</v>
+        <v>-0.09100731089192998</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4657428674524711</v>
+        <v>0.3650892432052811</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.84837972427267</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.79958677196787</v>
+        <v>-24.95009588543635</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.08999920357311707</v>
+        <v>-0.122455022317756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4366517705381557</v>
+        <v>0.3524158940544903</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-12.72873500447947</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.06831938009714</v>
+        <v>-25.21615766378591</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2136243916293522</v>
+        <v>0.1835775566075908</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4248425133749189</v>
+        <v>0.3400043909605339</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-12.63221864686518</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.06587111946574</v>
+        <v>-25.21251800359591</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2068033018488129</v>
+        <v>0.1723181761637064</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2641606805984148</v>
+        <v>0.1799902656289579</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-12.56543885452356</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.0417943745398</v>
+        <v>-25.1899861504053</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01331215815094333</v>
+        <v>-0.02342484362294002</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2667922334696017</v>
+        <v>0.1882776933277705</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.52883088319011</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.13029834174987</v>
+        <v>-25.27520394960209</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1633761333228075</v>
+        <v>0.1365369124972691</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02990553352959442</v>
+        <v>-0.1064693205480085</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.51859397366359</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.18523364447375</v>
+        <v>-25.33453826608079</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1180636731875936</v>
+        <v>0.08567331595716331</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1175454087521087</v>
+        <v>-0.1874321213212425</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.5306026686842</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.95691697521689</v>
+        <v>-25.10417919758063</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.004715942862113464</v>
+        <v>-0.02902834923919877</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2991094645611658</v>
+        <v>-0.3649113786436811</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.55722153413225</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.50614898837626</v>
+        <v>-24.65469425641849</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.005959711632077441</v>
+        <v>-0.0327596555490907</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7893769290752819</v>
+        <v>-0.8598527952722933</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-12.58798486237451</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.5579945076295</v>
+        <v>-24.70686708324277</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05776052629860334</v>
+        <v>0.03278041247659</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9052699938302411</v>
+        <v>-0.9815457501861371</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-12.61750335598287</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.16220110042128</v>
+        <v>-24.31111295294307</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.003419804880782583</v>
+        <v>-0.02473407390711262</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.392107274999825</v>
+        <v>-1.471446630220685</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-12.64392945502594</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.56080616938659</v>
+        <v>-23.70277910140227</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1159743324111016</v>
+        <v>-0.1227299606774322</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.461588126180865</v>
+        <v>-1.535232329665574</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-12.6634146472651</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.21865192692092</v>
+        <v>-23.35970839773768</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3128432902421365</v>
+        <v>-0.3172946732083233</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.539107651306725</v>
+        <v>-1.627231941734383</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-12.67533895631232</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.47105525005268</v>
+        <v>-22.60546083102584</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4240624028825994</v>
+        <v>-0.4279508168265921</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.733358148569415</v>
+        <v>-1.816638286945634</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-12.68151517175176</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.67207128453066</v>
+        <v>-21.8087287415926</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3624631180122783</v>
+        <v>-0.366443178076163</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.865407115031064</v>
+        <v>-1.956464081295269</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-12.67841637640286</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.28447365890136</v>
+        <v>-21.41644407154596</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4253323562582468</v>
+        <v>-0.4281210167635345</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.124896557354075</v>
+        <v>-2.217812630621804</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-12.6651592389623</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.6353310994029</v>
+        <v>-20.7686500192402</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3084573687901582</v>
+        <v>-0.3279125308129632</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.283090852590651</v>
+        <v>-2.381924646742841</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.64495084689827</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.2864212286709</v>
+        <v>-20.41014349052521</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5608638752757951</v>
+        <v>-0.5656687504187086</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.504154386073195</v>
+        <v>-2.603302395493587</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.61493421191719</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.7159895938569</v>
+        <v>-19.8328383967193</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3008638331419571</v>
+        <v>-0.3187610111265967</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.370115389579604</v>
+        <v>-2.48044422562683</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.57593565674706</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.17648197835505</v>
+        <v>-19.29435198083911</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.05891807662685938</v>
+        <v>-0.07669742388592339</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.400659732109351</v>
+        <v>-2.523007302165281</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.53556251111123</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.27603266580966</v>
+        <v>-18.39230540734702</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.05715061574322636</v>
+        <v>-0.06919553435761434</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.3270024363218</v>
+        <v>-2.459535817988593</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.49479056884304</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.95413221584014</v>
+        <v>-18.07374349460214</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.01175960179096209</v>
+        <v>-0.02554579668329964</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.521724256486792</v>
+        <v>-2.659520743895959</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.45840042327379</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.42190392071829</v>
+        <v>-17.53783626238177</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.03815368431988184</v>
+        <v>-0.04953089548934179</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.565465640280999</v>
+        <v>-2.705658019110202</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-12.43817921954647</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.00592218252812</v>
+        <v>-17.11141995882675</v>
       </c>
       <c r="F46" t="n">
-        <v>0.007067129695439997</v>
+        <v>0.007054037392598272</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.467509030419204</v>
+        <v>-2.596769336375566</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-12.43615987666731</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.34096412119686</v>
+        <v>-16.44047871509682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.001332701050763979</v>
+        <v>-0.01473155453603391</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.801166368340593</v>
+        <v>-2.938674825087242</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.45573553032004</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.67998611992948</v>
+        <v>-15.78145146695285</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00183020855874957</v>
+        <v>8.893228080000287e-05</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.717833860753006</v>
+        <v>-2.849437688918037</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.50448111062673</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.11390112965892</v>
+        <v>-15.20279786595424</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1220044563429531</v>
+        <v>0.1080873384221983</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.942196654551666</v>
+        <v>-3.087429569974934</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.57835269720017</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.41266429715323</v>
+        <v>-14.5018883410196</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2458314566199983</v>
+        <v>0.2242815261425172</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.889919089304654</v>
+        <v>-3.036225573560943</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.67563349512955</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.60433242740223</v>
+        <v>-13.68860758079442</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2569730063383072</v>
+        <v>0.2413800736538114</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.992196159104218</v>
+        <v>-3.151804423047701</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.80132460152124</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.01129038558056</v>
+        <v>-13.09443960092836</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3301197023150307</v>
+        <v>0.3115548168854632</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.979876302130154</v>
+        <v>-3.129743892759392</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-12.95120480504182</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.37245146841854</v>
+        <v>-12.45367611524861</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3875425425788412</v>
+        <v>0.3714390100835182</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.012698705354361</v>
+        <v>-3.167030771252628</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.12466901739747</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.99413628550402</v>
+        <v>-12.07583225523639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2793870288033422</v>
+        <v>0.2624586812289904</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.150822500334571</v>
+        <v>-3.31616519292273</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.32635509946883</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.49182390237551</v>
+        <v>-11.5629805683203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05599306541497032</v>
+        <v>0.0502586367702943</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.620377941753076</v>
+        <v>-3.777276099008322</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.54808186555512</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.06741072115528</v>
+        <v>-11.13837100255744</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1108367220189608</v>
+        <v>0.09114589854500481</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.707140632685195</v>
+        <v>-3.869184064957239</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.78301223473189</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.3035795887633</v>
+        <v>-10.37478862391945</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05264143588748844</v>
+        <v>0.03418128888065469</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.084094216104172</v>
+        <v>-4.254464352983553</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-14.02923007001743</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.01787935615115</v>
+        <v>-10.0955821735168</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.125322236640094</v>
+        <v>-0.1425647994826472</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.109205252954602</v>
+        <v>-4.279941974313552</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.27483418454363</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.443886614964198</v>
+        <v>-9.513367466145239</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.05637816987556453</v>
+        <v>-0.07669742388592339</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.396646761844699</v>
+        <v>-4.568509421248037</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.51211458411399</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.086702408836228</v>
+        <v>-9.157610321027017</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1727425575328258</v>
+        <v>-0.1884664132457388</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.303233181068983</v>
+        <v>-4.470199319209516</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.73934740918905</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.547234070242906</v>
+        <v>-8.615693721802291</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1976964867491557</v>
+        <v>-0.2137607423359536</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.694326451557024</v>
+        <v>-4.856500806857485</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.94546848804804</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.056783313489005</v>
+        <v>-8.126080872430261</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1567568557630783</v>
+        <v>-0.1733840803720704</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.681011579566989</v>
+        <v>-4.854707161368169</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-15.12489314421542</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.600516559454852</v>
+        <v>-7.675234331772582</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1780318478808832</v>
+        <v>-0.1919620581044797</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.671702952246521</v>
+        <v>-4.839480813163241</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.27602710101665</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.239745062348248</v>
+        <v>-7.311700358766375</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.339394480405157</v>
+        <v>-0.3520285526474226</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.880787028628887</v>
+        <v>-5.041416492194024</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.38767649387735</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.87961508808089</v>
+        <v>-6.954817275603764</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2780177646831452</v>
+        <v>-0.2899972217833245</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.151103805402005</v>
+        <v>-5.309271916032897</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.45449333879474</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.631646872258598</v>
+        <v>-6.707922628614494</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3966733053377085</v>
+        <v>-0.4093597467913411</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.127655491012473</v>
+        <v>-5.282197033756209</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.47651679422353</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.466710041058533</v>
+        <v>-6.541283798045004</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4704615241536766</v>
+        <v>-0.4874815178479205</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.232655759803117</v>
+        <v>-5.38438245743588</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.44792984376071</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.189978035892969</v>
+        <v>-6.265808653952246</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4227400802955851</v>
+        <v>-0.4350992141781745</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.215347735446355</v>
+        <v>-5.363055096106708</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.36913890988699</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.059879822554737</v>
+        <v>-6.13734697846923</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6966572403501778</v>
+        <v>-0.7178144017424072</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.282341049087467</v>
+        <v>-5.420189905708001</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-15.24536865120332</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.853584406677659</v>
+        <v>-5.93490069962762</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6331202946592813</v>
+        <v>-0.644746259582734</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.129789536375675</v>
+        <v>-5.26613277816941</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.07638722675016</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.744119662617988</v>
+        <v>-5.830856168944423</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7090425588384508</v>
+        <v>-0.7186915860328029</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.07612418702744</v>
+        <v>-5.203891970459845</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.86627580952681</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.739249325960865</v>
+        <v>-5.828630477461329</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8240977162115395</v>
+        <v>-0.8399655872557115</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.940854514066726</v>
+        <v>-5.059117285636038</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.62259884119231</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.786499446916655</v>
+        <v>-5.877071997975715</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8637412092162859</v>
+        <v>-0.8818609563492349</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.753202537436266</v>
+        <v>-4.873363692917628</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.3474440104623</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.015300531378659</v>
+        <v>-6.100950376569231</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7548918033901755</v>
+        <v>-0.7696730132984841</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.622174770596271</v>
+        <v>-4.740424449862742</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.04634204956109</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.204824707315486</v>
+        <v>-6.287031276858684</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.083678804654442</v>
+        <v>-1.094767985161384</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.456007262929084</v>
+        <v>-4.574178388378504</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.72986834869649</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.701062261925429</v>
+        <v>-6.775413449763591</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.007010279213294</v>
+        <v>-1.02306144249725</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.267072240620136</v>
+        <v>-4.378540107014591</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.40621860440653</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.158428769398287</v>
+        <v>-7.228668974144147</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.066030380423795</v>
+        <v>-1.081858974559442</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.198206727672656</v>
+        <v>-4.308653394445457</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.08577882494668</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.750357965478407</v>
+        <v>-7.82464369180236</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.132866586430807</v>
+        <v>-1.146731335140195</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.814890285072601</v>
+        <v>-3.928688581372884</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.78168330398449</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.166850303479396</v>
+        <v>-8.241646629614177</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.112416409392031</v>
+        <v>-1.133023694064908</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.64565917854045</v>
+        <v>-3.766658241403682</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.50205937399527</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.631888900417506</v>
+        <v>-8.704171504406675</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.287251021540441</v>
+        <v>-1.292396296557239</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.287427588185141</v>
+        <v>-3.408897973950675</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.25216450007688</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.546582638454698</v>
+        <v>-9.610067214934228</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.2268693208344</v>
+        <v>-1.246154282920263</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.280056621685249</v>
+        <v>-3.403451575968517</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.03832193102073</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.33629725356477</v>
+        <v>-10.39314403250355</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.313383258012526</v>
+        <v>-1.330167590255619</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.09104304555925</v>
+        <v>-3.211295847160504</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.86366055794359</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.1564645650847</v>
+        <v>-11.20778639222427</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.439776349646549</v>
+        <v>-1.461051341764354</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.736176177034265</v>
+        <v>-2.861286222989799</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.72790961043276</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.35261662961332</v>
+        <v>-12.40019405814015</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.509466677673057</v>
+        <v>-1.527704255531582</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.60666711732391</v>
+        <v>-2.725793980880776</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.63340129118125</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.24506654512242</v>
+        <v>-13.29295818891745</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.591424493462263</v>
+        <v>-1.606388995610355</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.2773957008545</v>
+        <v>-2.397962717723955</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.58314234774856</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.40065865544737</v>
+        <v>-14.44191250170165</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.78990380454283</v>
+        <v>-1.802276030728261</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.02352285645059</v>
+        <v>-2.1398086902908</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.57539825435218</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.48220070089952</v>
+        <v>-15.51871513352509</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.834312895781965</v>
+        <v>-1.84390955376495</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.602958812265823</v>
+        <v>-1.717948508124703</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.60972673338819</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.88429468912849</v>
+        <v>-16.92220999815813</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.814622072308009</v>
+        <v>-1.818261732498008</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.298890078766735</v>
+        <v>-1.418750111282737</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.68557273902914</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.54071975236083</v>
+        <v>-18.56939189558421</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.045478648316164</v>
+        <v>-2.046630770966236</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.110007425669153</v>
+        <v>-1.233271456924004</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.79305990842654</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.13585974599105</v>
+        <v>-20.15997576782551</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.267131335426587</v>
+        <v>-2.26935702690968</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.825406946495712</v>
+        <v>-0.9501111310631528</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.92145462392471</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.91543100975267</v>
+        <v>-21.9238493604799</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.462664878367765</v>
+        <v>-2.461211632752334</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9707838772502383</v>
+        <v>-1.093720600934046</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.06105898971437</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.60505815299162</v>
+        <v>-23.6038274765245</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.556942551131035</v>
+        <v>-2.55440264437974</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.7796362557610377</v>
+        <v>-0.8978466581189823</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.19354110000197</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.7000491768161</v>
+        <v>-25.70203920684805</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.704872480939698</v>
+        <v>-2.698326329518835</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.7632185079975132</v>
+        <v>-0.8784831422160695</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.3036916189746</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.94098010041731</v>
+        <v>-27.93812597839781</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.571802314856394</v>
+        <v>-2.560032334601682</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.8886951384326158</v>
+        <v>-0.9996000358048774</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.38438084878653</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.21931573323732</v>
+        <v>-30.21386933525516</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.042313494382345</v>
+        <v>-3.029064083906519</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.243876222225802</v>
+        <v>-1.352332858966661</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.42729000532506</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.42568297733636</v>
+        <v>-32.4262590386614</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.096986951049394</v>
+        <v>-3.07480859003551</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.492643068521439</v>
+        <v>-1.601819781918593</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.42944454962504</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.65129590661275</v>
+        <v>-34.65344304427879</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.422553245814596</v>
+        <v>-3.391825611045065</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.694068147741395</v>
+        <v>-1.797916293881966</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.40568125466918</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.16543700591508</v>
+        <v>-37.16729611291861</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.677080705360592</v>
+        <v>-3.643459671663039</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.118075467573536</v>
+        <v>-2.224803920339286</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.35624582483529</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67410552262958</v>
+        <v>-39.66894715530994</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.59575132010779</v>
+        <v>-3.564879670007</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.585248109874847</v>
+        <v>-2.690536409328008</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-12.30467924333128</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.24075984863008</v>
+        <v>-42.23482903544279</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.77680477610602</v>
+        <v>-3.745815295279654</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.910500189371847</v>
+        <v>-3.006453676898858</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.25318615490492</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.52564163287096</v>
+        <v>-44.52278751085147</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.997554094320363</v>
+        <v>-3.961563353808458</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.490188082294952</v>
+        <v>-3.579765618338042</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.24133676232435</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.84541440418504</v>
+        <v>-46.84091065200748</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.144646116747155</v>
+        <v>-4.107411607465286</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.784856542353681</v>
+        <v>-3.872640432907454</v>
       </c>
     </row>
   </sheetData>
